--- a/Intuitics testing.xlsx
+++ b/Intuitics testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cberthillon\Documents\GitHub\Intuitics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cberthillon\Documents\GitHub\003.Intuitics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Steps</t>
   </si>
@@ -94,17 +94,180 @@
     <t>new</t>
   </si>
   <si>
-    <t>Extracted data is the result of a preprocessing:
-- I did a printscreen of the table= View(f15) an pasted it into a printscreen of the application
+    <t>- I would like to insert my code "FATCAIntuitics. R" defined in Rstudio. The file is in the repository in Github
+- Rstudio accepts some approximate coding: it gives a warning but no a blocking message.</t>
+  </si>
+  <si>
+    <t>- When copying and pasting the code in Inuitics, Intuitics considers as blocking the warnings from Rstudio. 
+- Is it possible for Intuitics to consider the code with the same level of flexibility?</t>
+  </si>
+  <si>
+    <t>Rstudio
+Intuitics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tab named "extracted data":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Extracted data is the result of a preprocessing:
+- I did a printscreen of the table= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View(f15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an pasted it into a printscreen of the application
 -  could you please help me anderstand how to set this up in intuitcics. Is it possible to have information that are not generated from a function?
 - please ref my code and the Rcode in github</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tab named "processed data":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- I did a printscreen of the table= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View(f19)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an pasted it into a printscreen of the application
+-  could you please help me anderstand how to set this up in intuitcics. Is it possible to have information that are not generated from a function?
+- please ref my code and the Rcode in github</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tab named "Dashboard": #1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Extracted data is the result of a preprocessing:
+- I did a printscreen of the graphe = "manipulate", f28 and f29
+COMMENT: I used the Rpackage = manipulate for the slider
+- please ref my code and the Rcode in github</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tab named "Search by FINm:#2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Extracted data is the result of a preprocessing:
+check Rcode row 123 to 135
+- I did a filter on words in column FINm = nF15--&gt; this would be a search field
+- Based on the search by character:, I want to be able to:
+&gt; have a dedicated graph
+&gt; a possibility to print the underlying table
+&gt; to see the filtered table
+- please ref my code and the Rcode in github</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +279,30 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -245,6 +432,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,6 +631,116 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246289</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1841046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4054928</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3935139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="967468" y="10930617"/>
+          <a:ext cx="3808639" cy="2094093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>394609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5021036</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1371891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="993323" y="9484180"/>
+          <a:ext cx="4748892" cy="977282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -446,7 +761,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="847725" y="5972175"/>
+          <a:off x="854529" y="5977618"/>
           <a:ext cx="5095875" cy="2686050"/>
           <a:chOff x="1647825" y="5791200"/>
           <a:chExt cx="7620000" cy="4648200"/>
@@ -460,7 +775,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -500,7 +815,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -533,6 +848,678 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1592036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3374571</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2231571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle à coins arrondis 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2911929" y="7388679"/>
+          <a:ext cx="1183821" cy="639535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Snapshot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> from RStudio</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4901170</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3197679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Groupe 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="789215" y="9157607"/>
+          <a:ext cx="4833134" cy="3129643"/>
+          <a:chOff x="789215" y="9157607"/>
+          <a:chExt cx="4833134" cy="3129643"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="Groupe 14"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="789215" y="9157607"/>
+            <a:ext cx="4833134" cy="3129643"/>
+            <a:chOff x="721180" y="9089571"/>
+            <a:chExt cx="5037240" cy="3182203"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Image 12"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="721180" y="9089571"/>
+              <a:ext cx="5034642" cy="3182203"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Image 11"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1850571" y="9946821"/>
+              <a:ext cx="3907849" cy="2095501"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle à coins arrondis 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3578678" y="10586356"/>
+            <a:ext cx="1183821" cy="639535"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>Snapshot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+              <a:t> from RStudio</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4925785</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3194255</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Groupe 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="911679" y="12559396"/>
+          <a:ext cx="4735285" cy="3017359"/>
+          <a:chOff x="911679" y="12559396"/>
+          <a:chExt cx="4735285" cy="3017359"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Image 17"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="911679" y="12559396"/>
+            <a:ext cx="4735285" cy="3017359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Image 16"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2054679" y="13280576"/>
+            <a:ext cx="3469821" cy="2232119"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rectangle à coins arrondis 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3483429" y="13403036"/>
+            <a:ext cx="1183821" cy="639535"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>Snapshot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+              <a:t> from RStudio</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4435928</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3040272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762001" y="15729857"/>
+          <a:ext cx="4395106" cy="2985844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1238249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1360718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3687838</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2122715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1959428" y="17036147"/>
+          <a:ext cx="2449589" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1319892</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>843642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1170214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle à coins arrondis 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2041071" y="16519071"/>
+          <a:ext cx="911679" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Search field</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3483429</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>830035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175502</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2558142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4204608" y="16505464"/>
+          <a:ext cx="1930823" cy="1728107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1292679</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2354035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2204358</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2680607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle à coins arrondis 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013858" y="18029464"/>
+          <a:ext cx="911679" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Print</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> button</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -916,17 +1903,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
@@ -960,7 +1945,7 @@
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -975,7 +1960,7 @@
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -984,33 +1969,86 @@
         <v>41983</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>41984</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>41984</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>41984</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>41984</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Intuitics testing.xlsx
+++ b/Intuitics testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Steps</t>
   </si>
@@ -261,6 +261,14 @@
 &gt; to see the filtered table
 - please ref my code and the Rcode in github</t>
     </r>
+  </si>
+  <si>
+    <t>Column sort:</t>
+  </si>
+  <si>
+    <t>"Sort ascending" is OK
+"Sort descending" not OK:
+I used the dcast function for the table f19. I don't know if the root cause is my data set or if it is a bug</t>
   </si>
 </sst>
 </file>
@@ -413,6 +421,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -432,24 +458,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,6 +1528,239 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3306535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2245179</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Groupe 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="925287" y="23281822"/>
+          <a:ext cx="3102427" cy="2217964"/>
+          <a:chOff x="925287" y="23281822"/>
+          <a:chExt cx="4282223" cy="2914074"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="Image 29"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="925287" y="23281822"/>
+            <a:ext cx="3592285" cy="2914074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle à coins arrondis 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4190999" y="23839715"/>
+            <a:ext cx="1016511" cy="721179"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -90166"/>
+              <a:gd name="adj2" fmla="val -7120"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200"/>
+              <a:t>OK</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2313214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4177392</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4946789</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Groupe 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="898072" y="25567821"/>
+          <a:ext cx="4000499" cy="2633575"/>
+          <a:chOff x="898072" y="25567821"/>
+          <a:chExt cx="4000499" cy="2633575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="Image 30"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="898072" y="25567821"/>
+            <a:ext cx="3279322" cy="2633575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle à coins arrondis 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2966357" y="26751643"/>
+            <a:ext cx="1932214" cy="548905"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -66927"/>
+              <a:gd name="adj2" fmla="val 317"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200"/>
+              <a:t>Not OK</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1905,7 +2146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1945,7 +2188,7 @@
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1960,7 +2203,7 @@
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1969,14 +2212,14 @@
         <v>41983</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>19</v>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,12 +2227,12 @@
         <v>41984</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>19</v>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,12 +2240,12 @@
         <v>41984</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>19</v>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,37 +2253,45 @@
         <v>41984</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>19</v>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>41984</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>41988</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2091,92 +2342,92 @@
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
@@ -2187,36 +2438,36 @@
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="B30" s="17">
         <v>2</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
@@ -2275,36 +2526,36 @@
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>

--- a/Intuitics testing.xlsx
+++ b/Intuitics testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Steps</t>
   </si>
@@ -313,6 +313,13 @@
   </si>
   <si>
     <t>I would like to give access to the app only</t>
+  </si>
+  <si>
+    <t>want to modify my app</t>
+  </si>
+  <si>
+    <t>I am expecting to see my app after clicking on modify, sometime the screen appears empty.
+This happens frequently these last 2 days</t>
   </si>
 </sst>
 </file>
@@ -2299,6 +2306,118 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>363681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5183248</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2424545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1264228" y="50517136"/>
+          <a:ext cx="5044702" cy="2060864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1541318</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1091045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3931227</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2060863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle à coins arrondis 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="51244500"/>
+          <a:ext cx="2389909" cy="969818"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="4400"/>
+            <a:t>Empty !</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2682,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,7 +2962,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="356.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,7 +2977,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2873,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="393.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2888,7 +3007,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="393.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2903,7 +3022,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2918,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -2933,6 +3052,21 @@
         <v>41</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>42018</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>19</v>
       </c>
     </row>
